--- a/data/trans_camb/P62-Dificultad-trans_camb.xlsx
+++ b/data/trans_camb/P62-Dificultad-trans_camb.xlsx
@@ -646,7 +646,7 @@
         <v>-22.73406702546692</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>-13.93032625245442</v>
+        <v>-13.93032625245441</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>-4.317876498039341</v>
@@ -655,7 +655,7 @@
         <v>-2.285435069406583</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>7.092393833064942</v>
+        <v>7.092393833064936</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>-10.54237142753429</v>
@@ -664,7 +664,7 @@
         <v>-8.034694722293928</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>0.8342216408332714</v>
+        <v>0.8342216408332659</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-31.74476014901845</v>
+        <v>-32.11844550026685</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-28.94629662268942</v>
+        <v>-29.28203299936139</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-21.83278790266507</v>
+        <v>-21.34858303378809</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-9.035408538208332</v>
+        <v>-8.687385704125525</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-6.691872770580829</v>
+        <v>-6.862701223146124</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>2.136336863842025</v>
+        <v>1.518472601539903</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-14.35707623649746</v>
+        <v>-14.26296052483826</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-12.12013393536912</v>
+        <v>-12.10026102740539</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-3.641353219659611</v>
+        <v>-3.478865347985737</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>-18.06607155253488</v>
+        <v>-19.10007619758746</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>-16.15718262971244</v>
+        <v>-16.22660116430755</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>-5.959996262412169</v>
+        <v>-5.624797467990066</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.07089692219765696</v>
+        <v>0.3585848980223204</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>2.725616471483782</v>
+        <v>2.695691805256456</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>12.40082253506174</v>
+        <v>12.46696776164123</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>-6.772090143411552</v>
+        <v>-6.565152778042613</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>-4.176172858182901</v>
+        <v>-4.105613466866451</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>4.983530843565559</v>
+        <v>5.512050989896301</v>
       </c>
     </row>
     <row r="7">
@@ -751,7 +751,7 @@
         <v>-0.3861250418981721</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>-0.2365985726116992</v>
+        <v>-0.2365985726116989</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>-0.1336650934711738</v>
@@ -760,7 +760,7 @@
         <v>-0.07074840892583263</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2195536359276306</v>
+        <v>0.2195536359276304</v>
       </c>
       <c r="I7" s="6" t="n">
         <v>-0.2579592215212371</v>
@@ -769,7 +769,7 @@
         <v>-0.1965993714004905</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>0.02041240593017607</v>
+        <v>0.02041240593017593</v>
       </c>
     </row>
     <row r="8">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.5087228068209143</v>
+        <v>-0.5111187812190939</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.4605594599083942</v>
+        <v>-0.4617179791884234</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.3493722063525099</v>
+        <v>-0.3459790230159841</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.2601765909328688</v>
+        <v>-0.2466325216167428</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.1954884642610172</v>
+        <v>-0.19620015151572</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.06330556160901719</v>
+        <v>0.04148365884661378</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.3356166826502107</v>
+        <v>-0.3315538783653387</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.2778393446382488</v>
+        <v>-0.2807248681146056</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.08472071187995661</v>
+        <v>-0.0790242634928745</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>-0.3357443284618926</v>
+        <v>-0.3518919442137359</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>-0.2983356275908491</v>
+        <v>-0.2979241464942899</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>-0.1067605633645788</v>
+        <v>-0.1021741450869328</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.001945562027553701</v>
+        <v>0.01306396775155278</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.08959382665416182</v>
+        <v>0.09197900856481246</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.420266239172175</v>
+        <v>0.417251718461258</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>-0.177809348672959</v>
+        <v>-0.1683276470951596</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>-0.1070742186492106</v>
+        <v>-0.1094884082360454</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>0.1277197095618021</v>
+        <v>0.1420077679357844</v>
       </c>
     </row>
     <row r="10">
@@ -869,7 +869,7 @@
         <v>5.06801654181803</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>13.29611994349066</v>
+        <v>13.29611994349065</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>-0.05539552712977014</v>
@@ -878,7 +878,7 @@
         <v>0.3204674767298743</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>9.348225981340613</v>
+        <v>9.348225981340635</v>
       </c>
     </row>
     <row r="11">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-21.66621063886654</v>
+        <v>-21.5695626286571</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-16.66555727925903</v>
+        <v>-17.57741243043379</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-5.523219158401997</v>
+        <v>-5.639449014789706</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>2.45298469248894</v>
+        <v>2.916036160743984</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.6274462369215412</v>
+        <v>0.603066130331007</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>8.71713764417837</v>
+        <v>9.199486812246294</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-3.806051589238037</v>
+        <v>-4.00501617717573</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-3.564223615055395</v>
+        <v>-3.489197222700346</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>5.217898390483886</v>
+        <v>5.261020978336239</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>-8.519110875697269</v>
+        <v>-8.246163859835825</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>-3.713022461775892</v>
+        <v>-4.657412255478352</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>8.400587568540463</v>
+        <v>8.311507367613556</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>11.5309122535072</v>
+        <v>11.50681972067402</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>9.601911716282906</v>
+        <v>9.70474422214005</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>17.69238007671839</v>
+        <v>17.39425116618115</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>3.83129145700641</v>
+        <v>3.575664496638081</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>4.279641136872363</v>
+        <v>4.416836911066511</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>13.09715478722567</v>
+        <v>13.22565891344264</v>
       </c>
     </row>
     <row r="13">
@@ -974,7 +974,7 @@
         <v>0.2277733397967719</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.5975713814029759</v>
+        <v>0.5975713814029756</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>-0.001584315971394851</v>
@@ -983,7 +983,7 @@
         <v>0.009165392370152075</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>0.2673599204453981</v>
+        <v>0.2673599204453987</v>
       </c>
     </row>
     <row r="14">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.3559924182775306</v>
+        <v>-0.353470933117031</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.2793157700029185</v>
+        <v>-0.2897215433849103</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.09177768702335226</v>
+        <v>-0.09236331101139876</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>0.09979578064808638</v>
+        <v>0.1173012791726082</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.02251894568445209</v>
+        <v>0.02411976492823015</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.3436215530059656</v>
+        <v>0.3658748217127366</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.1044131012331158</v>
+        <v>-0.1077641230949511</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.09646994474718891</v>
+        <v>-0.09473283176406286</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>0.1440000112867501</v>
+        <v>0.1396255968194066</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>-0.1572000276170732</v>
+        <v>-0.1496205198949755</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>-0.07338852629000026</v>
+        <v>-0.08677222171575799</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.1504369070366912</v>
+        <v>0.1520837738617576</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.5654115307947123</v>
+        <v>0.57949162215315</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.4699527844495606</v>
+        <v>0.4727302378404057</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.876149512222586</v>
+        <v>0.8684723402220116</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.1140360107399802</v>
+        <v>0.1107505362175847</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.1290605820178161</v>
+        <v>0.1364393963714684</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>0.403588830901661</v>
+        <v>0.4036373781035651</v>
       </c>
     </row>
     <row r="16">
@@ -1083,7 +1083,7 @@
         <v>13.22494979972409</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>12.28634344631879</v>
+        <v>12.28634344631881</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>11.15556802368567</v>
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>5.812184686229881</v>
+        <v>6.333503008602446</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>4.339115586694628</v>
+        <v>5.093787909496066</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1.700085430751823</v>
+        <v>0.9898796546783679</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3.935227495830081</v>
+        <v>4.085068900849216</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>7.200520281574107</v>
+        <v>8.021641387648513</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>7.265667396825629</v>
+        <v>7.63141095551807</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>6.747499705678102</v>
+        <v>7.080692576246276</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>9.164575699261999</v>
+        <v>8.894210408570689</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>7.865689613567072</v>
+        <v>8.222757849587744</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>19.2646966567792</v>
+        <v>19.764839145867</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>18.55612884979335</v>
+        <v>19.15257932429805</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>16.07123895354742</v>
+        <v>16.35158842604103</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>13.89253109975886</v>
+        <v>13.87682881018501</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>18.47170993245606</v>
+        <v>18.59603931649693</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>16.84633690258262</v>
+        <v>17.07406574572971</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>15.23467664602132</v>
+        <v>15.39648874780948</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>18.59918673516878</v>
+        <v>18.25612087812901</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>15.8794824082096</v>
+        <v>16.35417184595015</v>
       </c>
     </row>
     <row r="19">
@@ -1188,7 +1188,7 @@
         <v>0.6389323602891102</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.593585800805299</v>
+        <v>0.5935858008052999</v>
       </c>
       <c r="I19" s="6" t="n">
         <v>0.3547879717588875</v>
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>0.1148217440093368</v>
+        <v>0.1185015419696549</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>0.08375244182658292</v>
+        <v>0.0973965469731114</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>0.03434575436869376</v>
+        <v>0.02184122241150045</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>0.1642746238423453</v>
+        <v>0.1801675640341138</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.3163945878516514</v>
+        <v>0.3435515424629754</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.3088232424698215</v>
+        <v>0.3247373063468947</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2033237660905986</v>
+        <v>0.2116105215407031</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>0.2799185978199287</v>
+        <v>0.2680011101710474</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>0.2341470726722145</v>
+        <v>0.2415861262159714</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.4397999258547077</v>
+        <v>0.4330703474494671</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.4225924506925843</v>
+        <v>0.4373546959274193</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.3611323980788972</v>
+        <v>0.3624162919031559</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.7594366542495903</v>
+        <v>0.7459945864004587</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>1.000106890996879</v>
+        <v>0.9847420699644172</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.9160877193885073</v>
+        <v>0.9269357373657526</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.5118801645407672</v>
+        <v>0.5440341259275296</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.6276759285530206</v>
+        <v>0.622726320899149</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>0.5386517302947595</v>
+        <v>0.5544882857370746</v>
       </c>
     </row>
     <row r="22">
@@ -1288,7 +1288,7 @@
         <v>10.81062917908989</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>8.718539663221737</v>
+        <v>8.718539663221724</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>11.19488608488808</v>
@@ -1306,7 +1306,7 @@
         <v>12.13305739955707</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>16.66811182904973</v>
+        <v>16.66811182904972</v>
       </c>
     </row>
     <row r="23">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-8.995602147710358</v>
+        <v>-8.691536247843777</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.1086523717904388</v>
+        <v>-0.8488896858848867</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-0.8285482479605416</v>
+        <v>-1.888268184927722</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>2.190628087529065</v>
+        <v>3.323431620788912</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>4.658237496765675</v>
+        <v>4.460720274401255</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>14.78798535819265</v>
+        <v>14.78362651500297</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-0.3940331314766151</v>
+        <v>-0.1399673828082286</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>5.35916799946889</v>
+        <v>5.524098641220751</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>10.31082112993138</v>
+        <v>10.10118081378895</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>13.4129138158759</v>
+        <v>12.17702287824554</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>21.82776183607441</v>
+        <v>21.39703066081971</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>19.70538210154929</v>
+        <v>18.54155097033894</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>19.14639826652368</v>
+        <v>20.80120005954917</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>21.39219437392125</v>
+        <v>21.56294900002254</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>28.42777882299511</v>
+        <v>29.20243780060109</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>13.5128317842976</v>
+        <v>14.23668543627305</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>19.47967256485815</v>
+        <v>18.5416515557828</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>22.51040585741584</v>
+        <v>22.60240567424183</v>
       </c>
     </row>
     <row r="25">
@@ -1393,7 +1393,7 @@
         <v>0.2150069088656215</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>0.1733984425658964</v>
+        <v>0.1733984425658962</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>0.5881007998819663</v>
@@ -1411,7 +1411,7 @@
         <v>0.3696877942898169</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>0.5078684864115414</v>
+        <v>0.5078684864115413</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.1615614810784398</v>
+        <v>-0.1578173177496004</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>0.001539946987022026</v>
+        <v>-0.01391933741516242</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.01425415312675277</v>
+        <v>-0.03300848577826409</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>0.08522869295945017</v>
+        <v>0.1376549474638889</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.1823405393096195</v>
+        <v>0.1737513155808936</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.5772361976028173</v>
+        <v>0.6238473589879032</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.008535945628587928</v>
+        <v>-0.003611086499760495</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.1473796282246951</v>
+        <v>0.1444663813358923</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>0.2719242575224456</v>
+        <v>0.2673162209118786</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.3030052624446931</v>
+        <v>0.2766066421011696</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.5119421470310055</v>
+        <v>0.4902780904057191</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.4693734806940171</v>
+        <v>0.4255563803935729</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>1.287041808968167</v>
+        <v>1.403619168509969</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>1.471070262936294</v>
+        <v>1.441665472548466</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>1.961613396804487</v>
+        <v>2.116229924113608</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.4665297700050732</v>
+        <v>0.50817639086877</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.6972083011387924</v>
+        <v>0.6383988003758031</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.788858322290744</v>
+        <v>0.7951100316045455</v>
       </c>
     </row>
     <row r="28">
@@ -1511,7 +1511,7 @@
         <v>5.56448333028188</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>12.13545407549075</v>
+        <v>12.13545407549074</v>
       </c>
       <c r="I28" s="5" t="n">
         <v>0.05538913748874275</v>
@@ -1520,7 +1520,7 @@
         <v>1.824849024171643</v>
       </c>
       <c r="K28" s="5" t="n">
-        <v>9.189420352923911</v>
+        <v>9.189420352923916</v>
       </c>
     </row>
     <row r="29">
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-14.05715169168209</v>
+        <v>-13.87220809051455</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-11.33553572083356</v>
+        <v>-11.27294965576217</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-2.535077141445553</v>
+        <v>-2.049500794727506</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>1.789162872156789</v>
+        <v>1.842152182932526</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>2.747324831097358</v>
+        <v>2.961192285042457</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>9.677037434486245</v>
+        <v>9.584706296383287</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>-2.0879504778561</v>
+        <v>-2.014508989412268</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-0.4422745710648003</v>
+        <v>-0.1797370092559384</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>6.908402702932598</v>
+        <v>7.035006159759143</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>-6.87109941067525</v>
+        <v>-7.022397562831133</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>-4.31501846352767</v>
+        <v>-4.231992124670389</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>5.179220287395199</v>
+        <v>5.683487077567389</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>6.901998662593306</v>
+        <v>7.05697752134217</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>8.144787132272972</v>
+        <v>8.269719908751597</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>14.86441648279531</v>
+        <v>14.58356269844348</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>2.166194843474071</v>
+        <v>2.272580586966312</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>3.904415537262172</v>
+        <v>3.805337057445452</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>11.44444458806892</v>
+        <v>11.44829725669565</v>
       </c>
     </row>
     <row r="31">
@@ -1616,7 +1616,7 @@
         <v>0.2257457033865763</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.4923236271153275</v>
+        <v>0.4923236271153273</v>
       </c>
       <c r="I31" s="6" t="n">
         <v>0.001562706571461719</v>
@@ -1625,7 +1625,7 @@
         <v>0.05148488839672059</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>0.2592632459091254</v>
+        <v>0.2592632459091256</v>
       </c>
     </row>
     <row r="32">
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.2494864202690741</v>
+        <v>-0.2461831905070015</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.2030007401608275</v>
+        <v>-0.2006436300517825</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.0446808897606788</v>
+        <v>-0.03773541910337083</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>0.06836469224659465</v>
+        <v>0.06900916710257712</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.1057777346394536</v>
+        <v>0.1161658715768068</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.3711840374520722</v>
+        <v>0.3691280018543378</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>-0.057722773575021</v>
+        <v>-0.05472479887501033</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.01181710045143762</v>
+        <v>-0.005550052716245606</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>0.188451692388079</v>
+        <v>0.193784698288223</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>-0.129817651794291</v>
+        <v>-0.1349506225011991</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>-0.08423911407017363</v>
+        <v>-0.08224887592543639</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.09808393675796213</v>
+        <v>0.1080250614436632</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.2969073762983705</v>
+        <v>0.2985190993714522</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.3545075559890872</v>
+        <v>0.349980267827125</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.6443989141007472</v>
+        <v>0.6284465185091793</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.0625836058770446</v>
+        <v>0.06590596855647989</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.1148503606501995</v>
+        <v>0.1098586567327482</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>0.3315186641919553</v>
+        <v>0.3373231985841823</v>
       </c>
     </row>
     <row r="34">
